--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9629668624266</v>
+        <v>6.320198333333333</v>
       </c>
       <c r="H2">
-        <v>2.9629668624266</v>
+        <v>18.960595</v>
       </c>
       <c r="I2">
-        <v>0.008216309093692947</v>
+        <v>0.01706930024836835</v>
       </c>
       <c r="J2">
-        <v>0.008216309093692947</v>
+        <v>0.01706930024836834</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.41704612370485</v>
+        <v>7.613593333333334</v>
       </c>
       <c r="N2">
-        <v>7.41704612370485</v>
+        <v>22.84078</v>
       </c>
       <c r="O2">
-        <v>0.9195990244020184</v>
+        <v>0.9151530262704457</v>
       </c>
       <c r="P2">
-        <v>0.9195990244020184</v>
+        <v>0.9151530262704456</v>
       </c>
       <c r="Q2">
-        <v>21.97646188162713</v>
+        <v>48.11941989601111</v>
       </c>
       <c r="R2">
-        <v>21.97646188162713</v>
+        <v>433.0747790641</v>
       </c>
       <c r="S2">
-        <v>0.007555709826745466</v>
+        <v>0.01562102177861316</v>
       </c>
       <c r="T2">
-        <v>0.007555709826745466</v>
+        <v>0.01562102177861316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9629668624266</v>
+        <v>6.320198333333333</v>
       </c>
       <c r="H3">
-        <v>2.9629668624266</v>
+        <v>18.960595</v>
       </c>
       <c r="I3">
-        <v>0.008216309093692947</v>
+        <v>0.01706930024836835</v>
       </c>
       <c r="J3">
-        <v>0.008216309093692947</v>
+        <v>0.01706930024836834</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.541734538063341</v>
+        <v>0.5558253333333333</v>
       </c>
       <c r="N3">
-        <v>0.541734538063341</v>
+        <v>1.667476</v>
       </c>
       <c r="O3">
-        <v>0.06716670550230905</v>
+        <v>0.06681013991787221</v>
       </c>
       <c r="P3">
-        <v>0.06716670550230905</v>
+        <v>0.06681013991787221</v>
       </c>
       <c r="Q3">
-        <v>1.605141484513661</v>
+        <v>3.512926345357777</v>
       </c>
       <c r="R3">
-        <v>1.605141484513661</v>
+        <v>31.61633710821999</v>
       </c>
       <c r="S3">
-        <v>0.000551862413212018</v>
+        <v>0.00114040233789366</v>
       </c>
       <c r="T3">
-        <v>0.000551862413212018</v>
+        <v>0.00114040233789366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.9629668624266</v>
+        <v>6.320198333333333</v>
       </c>
       <c r="H4">
-        <v>2.9629668624266</v>
+        <v>18.960595</v>
       </c>
       <c r="I4">
-        <v>0.008216309093692947</v>
+        <v>0.01706930024836835</v>
       </c>
       <c r="J4">
-        <v>0.008216309093692947</v>
+        <v>0.01706930024836834</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.106741296052375</v>
+        <v>0.150057</v>
       </c>
       <c r="N4">
-        <v>0.106741296052375</v>
+        <v>0.450171</v>
       </c>
       <c r="O4">
-        <v>0.01323427009567255</v>
+        <v>0.01803683381168212</v>
       </c>
       <c r="P4">
-        <v>0.01323427009567255</v>
+        <v>0.01803683381168212</v>
       </c>
       <c r="Q4">
-        <v>0.3162709230556544</v>
+        <v>0.948390001305</v>
       </c>
       <c r="R4">
-        <v>0.3162709230556544</v>
+        <v>8.535510011744998</v>
       </c>
       <c r="S4">
-        <v>0.000108736853735463</v>
+        <v>0.0003078761318615242</v>
       </c>
       <c r="T4">
-        <v>0.000108736853735463</v>
+        <v>0.0003078761318615241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>352.40386944191</v>
+        <v>357.712545</v>
       </c>
       <c r="H5">
-        <v>352.40386944191</v>
+        <v>1073.137635</v>
       </c>
       <c r="I5">
-        <v>0.9772161659536192</v>
+        <v>0.966093548205577</v>
       </c>
       <c r="J5">
-        <v>0.9772161659536192</v>
+        <v>0.9660935482055769</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.41704612370485</v>
+        <v>7.613593333333334</v>
       </c>
       <c r="N5">
-        <v>7.41704612370485</v>
+        <v>22.84078</v>
       </c>
       <c r="O5">
-        <v>0.9195990244020184</v>
+        <v>0.9151530262704457</v>
       </c>
       <c r="P5">
-        <v>0.9195990244020184</v>
+        <v>0.9151530262704456</v>
       </c>
       <c r="Q5">
-        <v>2613.795753822708</v>
+        <v>2723.4778478617</v>
       </c>
       <c r="R5">
-        <v>2613.795753822708</v>
+        <v>24511.3006307553</v>
       </c>
       <c r="S5">
-        <v>0.898647032840829</v>
+        <v>0.8841234343006865</v>
       </c>
       <c r="T5">
-        <v>0.898647032840829</v>
+        <v>0.8841234343006863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>352.40386944191</v>
+        <v>357.712545</v>
       </c>
       <c r="H6">
-        <v>352.40386944191</v>
+        <v>1073.137635</v>
       </c>
       <c r="I6">
-        <v>0.9772161659536192</v>
+        <v>0.966093548205577</v>
       </c>
       <c r="J6">
-        <v>0.9772161659536192</v>
+        <v>0.9660935482055769</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.541734538063341</v>
+        <v>0.5558253333333333</v>
       </c>
       <c r="N6">
-        <v>0.541734538063341</v>
+        <v>1.667476</v>
       </c>
       <c r="O6">
-        <v>0.06716670550230905</v>
+        <v>0.06681013991787221</v>
       </c>
       <c r="P6">
-        <v>0.06716670550230905</v>
+        <v>0.06681013991787221</v>
       </c>
       <c r="Q6">
-        <v>190.9093474238471</v>
+        <v>198.82569456214</v>
       </c>
       <c r="R6">
-        <v>190.9093474238471</v>
+        <v>1789.43125105926</v>
       </c>
       <c r="S6">
-        <v>0.06563639043070231</v>
+        <v>0.06454484512936823</v>
       </c>
       <c r="T6">
-        <v>0.06563639043070231</v>
+        <v>0.06454484512936821</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>352.40386944191</v>
+        <v>357.712545</v>
       </c>
       <c r="H7">
-        <v>352.40386944191</v>
+        <v>1073.137635</v>
       </c>
       <c r="I7">
-        <v>0.9772161659536192</v>
+        <v>0.966093548205577</v>
       </c>
       <c r="J7">
-        <v>0.9772161659536192</v>
+        <v>0.9660935482055769</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.106741296052375</v>
+        <v>0.150057</v>
       </c>
       <c r="N7">
-        <v>0.106741296052375</v>
+        <v>0.450171</v>
       </c>
       <c r="O7">
-        <v>0.01323427009567255</v>
+        <v>0.01803683381168212</v>
       </c>
       <c r="P7">
-        <v>0.01323427009567255</v>
+        <v>0.01803683381168212</v>
       </c>
       <c r="Q7">
-        <v>37.61604575810142</v>
+        <v>53.677271365065</v>
       </c>
       <c r="R7">
-        <v>37.61604575810142</v>
+        <v>483.095442285585</v>
       </c>
       <c r="S7">
-        <v>0.01293274268208776</v>
+        <v>0.0174252687755223</v>
       </c>
       <c r="T7">
-        <v>0.01293274268208776</v>
+        <v>0.0174252687755223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -906,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.23172074865138</v>
+        <v>0.2484933333333333</v>
       </c>
       <c r="H8">
-        <v>0.23172074865138</v>
+        <v>0.74548</v>
       </c>
       <c r="I8">
-        <v>0.0006425617911846745</v>
+        <v>0.0006711193371913507</v>
       </c>
       <c r="J8">
-        <v>0.0006425617911846745</v>
+        <v>0.0006711193371913505</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.41704612370485</v>
+        <v>7.613593333333334</v>
       </c>
       <c r="N8">
-        <v>7.41704612370485</v>
+        <v>22.84078</v>
       </c>
       <c r="O8">
-        <v>0.9195990244020184</v>
+        <v>0.9151530262704457</v>
       </c>
       <c r="P8">
-        <v>0.9195990244020184</v>
+        <v>0.9151530262704456</v>
       </c>
       <c r="Q8">
-        <v>1.718683480566704</v>
+        <v>1.891927186044445</v>
       </c>
       <c r="R8">
-        <v>1.718683480566704</v>
+        <v>17.0273446744</v>
       </c>
       <c r="S8">
-        <v>0.0005908991962914401</v>
+        <v>0.0006141768924192802</v>
       </c>
       <c r="T8">
-        <v>0.0005908991962914401</v>
+        <v>0.0006141768924192801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -968,49 +971,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.23172074865138</v>
+        <v>0.2484933333333333</v>
       </c>
       <c r="H9">
-        <v>0.23172074865138</v>
+        <v>0.74548</v>
       </c>
       <c r="I9">
-        <v>0.0006425617911846745</v>
+        <v>0.0006711193371913507</v>
       </c>
       <c r="J9">
-        <v>0.0006425617911846745</v>
+        <v>0.0006711193371913505</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.541734538063341</v>
+        <v>0.5558253333333333</v>
       </c>
       <c r="N9">
-        <v>0.541734538063341</v>
+        <v>1.667476</v>
       </c>
       <c r="O9">
-        <v>0.06716670550230905</v>
+        <v>0.06681013991787221</v>
       </c>
       <c r="P9">
-        <v>0.06716670550230905</v>
+        <v>0.06681013991787221</v>
       </c>
       <c r="Q9">
-        <v>0.1255311327303469</v>
+        <v>0.1381188898311111</v>
       </c>
       <c r="R9">
-        <v>0.1255311327303469</v>
+        <v>1.24307000848</v>
       </c>
       <c r="S9">
-        <v>4.315875859553723E-05</v>
+        <v>4.48375768193438E-05</v>
       </c>
       <c r="T9">
-        <v>4.315875859553723E-05</v>
+        <v>4.483757681934379E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.23172074865138</v>
+        <v>0.2484933333333333</v>
       </c>
       <c r="H10">
-        <v>0.23172074865138</v>
+        <v>0.74548</v>
       </c>
       <c r="I10">
-        <v>0.0006425617911846745</v>
+        <v>0.0006711193371913507</v>
       </c>
       <c r="J10">
-        <v>0.0006425617911846745</v>
+        <v>0.0006711193371913505</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.106741296052375</v>
+        <v>0.150057</v>
       </c>
       <c r="N10">
-        <v>0.106741296052375</v>
+        <v>0.450171</v>
       </c>
       <c r="O10">
-        <v>0.01323427009567255</v>
+        <v>0.01803683381168212</v>
       </c>
       <c r="P10">
-        <v>0.01323427009567255</v>
+        <v>0.01803683381168212</v>
       </c>
       <c r="Q10">
-        <v>0.02473417303327493</v>
+        <v>0.03728816412</v>
       </c>
       <c r="R10">
-        <v>0.02473417303327493</v>
+        <v>0.33559347708</v>
       </c>
       <c r="S10">
-        <v>8.503836297697124E-06</v>
+        <v>1.210486795272665E-05</v>
       </c>
       <c r="T10">
-        <v>8.503836297697124E-06</v>
+        <v>1.210486795272664E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.02162271861425</v>
+        <v>0.2365366666666667</v>
       </c>
       <c r="H11">
-        <v>5.02162271861425</v>
+        <v>0.7096100000000001</v>
       </c>
       <c r="I11">
-        <v>0.01392496316150328</v>
+        <v>0.0006388273231533433</v>
       </c>
       <c r="J11">
-        <v>0.01392496316150328</v>
+        <v>0.0006388273231533432</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.41704612370485</v>
+        <v>7.613593333333334</v>
       </c>
       <c r="N11">
-        <v>7.41704612370485</v>
+        <v>22.84078</v>
       </c>
       <c r="O11">
-        <v>0.9195990244020184</v>
+        <v>0.9151530262704457</v>
       </c>
       <c r="P11">
-        <v>0.9195990244020184</v>
+        <v>0.9151530262704456</v>
       </c>
       <c r="Q11">
-        <v>37.24560731980603</v>
+        <v>1.800893988422223</v>
       </c>
       <c r="R11">
-        <v>37.24560731980603</v>
+        <v>16.20804589580001</v>
       </c>
       <c r="S11">
-        <v>0.01280538253815246</v>
+        <v>0.0005846247580480301</v>
       </c>
       <c r="T11">
-        <v>0.01280538253815246</v>
+        <v>0.0005846247580480299</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.02162271861425</v>
+        <v>0.2365366666666667</v>
       </c>
       <c r="H12">
-        <v>5.02162271861425</v>
+        <v>0.7096100000000001</v>
       </c>
       <c r="I12">
-        <v>0.01392496316150328</v>
+        <v>0.0006388273231533433</v>
       </c>
       <c r="J12">
-        <v>0.01392496316150328</v>
+        <v>0.0006388273231533432</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.541734538063341</v>
+        <v>0.5558253333333333</v>
       </c>
       <c r="N12">
-        <v>0.541734538063341</v>
+        <v>1.667476</v>
       </c>
       <c r="O12">
-        <v>0.06716670550230905</v>
+        <v>0.06681013991787221</v>
       </c>
       <c r="P12">
-        <v>0.06716670550230905</v>
+        <v>0.06681013991787221</v>
       </c>
       <c r="Q12">
-        <v>2.720386463796869</v>
+        <v>0.1314730715955556</v>
       </c>
       <c r="R12">
-        <v>2.720386463796869</v>
+        <v>1.18325764436</v>
       </c>
       <c r="S12">
-        <v>0.0009352938997991931</v>
+        <v>4.268014284323463E-05</v>
       </c>
       <c r="T12">
-        <v>0.0009352938997991931</v>
+        <v>4.268014284323463E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2365366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.7096100000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0006388273231533433</v>
+      </c>
+      <c r="J13">
+        <v>0.0006388273231533432</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.150057</v>
+      </c>
+      <c r="N13">
+        <v>0.450171</v>
+      </c>
+      <c r="O13">
+        <v>0.01803683381168212</v>
+      </c>
+      <c r="P13">
+        <v>0.01803683381168212</v>
+      </c>
+      <c r="Q13">
+        <v>0.03549398259000001</v>
+      </c>
+      <c r="R13">
+        <v>0.31944584331</v>
+      </c>
+      <c r="S13">
+        <v>1.15224222620786E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.15224222620786E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.02162271861425</v>
-      </c>
-      <c r="H13">
-        <v>5.02162271861425</v>
-      </c>
-      <c r="I13">
-        <v>0.01392496316150328</v>
-      </c>
-      <c r="J13">
-        <v>0.01392496316150328</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.106741296052375</v>
-      </c>
-      <c r="N13">
-        <v>0.106741296052375</v>
-      </c>
-      <c r="O13">
-        <v>0.01323427009567255</v>
-      </c>
-      <c r="P13">
-        <v>0.01323427009567255</v>
-      </c>
-      <c r="Q13">
-        <v>0.5360145172709359</v>
-      </c>
-      <c r="R13">
-        <v>0.5360145172709359</v>
-      </c>
-      <c r="S13">
-        <v>0.0001842867235516247</v>
-      </c>
-      <c r="T13">
-        <v>0.0001842867235516247</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.749211333333332</v>
+      </c>
+      <c r="H14">
+        <v>17.247634</v>
+      </c>
+      <c r="I14">
+        <v>0.01552720488570988</v>
+      </c>
+      <c r="J14">
+        <v>0.01552720488570988</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.613593333333334</v>
+      </c>
+      <c r="N14">
+        <v>22.84078</v>
+      </c>
+      <c r="O14">
+        <v>0.9151530262704457</v>
+      </c>
+      <c r="P14">
+        <v>0.9151530262704456</v>
+      </c>
+      <c r="Q14">
+        <v>43.77215707939111</v>
+      </c>
+      <c r="R14">
+        <v>393.94941371452</v>
+      </c>
+      <c r="S14">
+        <v>0.01420976854067865</v>
+      </c>
+      <c r="T14">
+        <v>0.01420976854067864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.749211333333332</v>
+      </c>
+      <c r="H15">
+        <v>17.247634</v>
+      </c>
+      <c r="I15">
+        <v>0.01552720488570988</v>
+      </c>
+      <c r="J15">
+        <v>0.01552720488570988</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5558253333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.667476</v>
+      </c>
+      <c r="O15">
+        <v>0.06681013991787221</v>
+      </c>
+      <c r="P15">
+        <v>0.06681013991787221</v>
+      </c>
+      <c r="Q15">
+        <v>3.195557305753777</v>
+      </c>
+      <c r="R15">
+        <v>28.760015751784</v>
+      </c>
+      <c r="S15">
+        <v>0.001037374730947746</v>
+      </c>
+      <c r="T15">
+        <v>0.001037374730947746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.749211333333332</v>
+      </c>
+      <c r="H16">
+        <v>17.247634</v>
+      </c>
+      <c r="I16">
+        <v>0.01552720488570988</v>
+      </c>
+      <c r="J16">
+        <v>0.01552720488570988</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.150057</v>
+      </c>
+      <c r="N16">
+        <v>0.450171</v>
+      </c>
+      <c r="O16">
+        <v>0.01803683381168212</v>
+      </c>
+      <c r="P16">
+        <v>0.01803683381168212</v>
+      </c>
+      <c r="Q16">
+        <v>0.8627094050459998</v>
+      </c>
+      <c r="R16">
+        <v>7.764384645413998</v>
+      </c>
+      <c r="S16">
+        <v>0.0002800616140834877</v>
+      </c>
+      <c r="T16">
+        <v>0.0002800616140834877</v>
       </c>
     </row>
   </sheetData>
